--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Louis_Dekeyser/Pierre_Louis_Dekeyser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Louis_Dekeyser/Pierre_Louis_Dekeyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Louis Dekeyser, né le 5 juin 1914 au Quesnoy[1] et mort le 1er septembre 1984 à Nova Friburgo (Brésil), est un zoologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Louis Dekeyser, né le 5 juin 1914 au Quesnoy et mort le 1er septembre 1984 à Nova Friburgo (Brésil), est un zoologiste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études supérieures de biologie, il fait son service militaire dans le 13e régiment de Dragon et participe en 1940 à la Campagne de France au 4e escadron du 6e régiment de Dragons.
-De son mariage en 1938 avec Jeanne Engel, il a trois enfants, Pierre, Patrick et Serge marié au sculpteur Danièle Dekeyser[2],[3].
+De son mariage en 1938 avec Jeanne Engel, il a trois enfants, Pierre, Patrick et Serge marié au sculpteur Danièle Dekeyser,.
 De 1949 à 1965, collaborateur de Théodore Monod, il est responsable du département de zoologie de l'Institut français d'Afrique Noire à Dakar (Sénégal). Il a été coordinateur scientifique pour la réalisation du Musée de la Mer de  l'île de Gorée à Dakar, inauguré en 1960.
 En 1965, il arrive au Brésil au titre de la Coopération Scientifique et Technique du Ministère Français des Affaires Étrangères en qualité de professeur invité à l'Université de Brasilia. En 1977 il sera  professeur à l'Université fédérale de Paraíba à Joao Pessoa, dans le laboratoire de zoologie, où il prend sa retraite en 1981.
 </t>
@@ -545,7 +559,9 @@
           <t>Missions scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1946 : Sénégal - Casamance - Guinée - Côte d'Ivoire
 1947 : Richard-Toll (Sénégal) - Côte d'Ivoire - Libéria (Est)
@@ -583,7 +599,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Mammifères Française de l'Afrique Noire, Initiations Africaines no 1, Dakar, 61 p., 47 figs., 1948
 Les animaux de l'Afrique Noire Française protégés, Initiations Africaines no 5, Dakar, 128 p., 57 figs., 1951 (en col avec Villiers A.).
@@ -619,7 +637,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1940 : Croix de Guerre (1939-1945)
 1955 : Médaille d'Argent de la Société Nationale d'Acclimatation et de la Protection de la Nature
@@ -653,7 +673,9 @@
           <t>Espèces décrites en son honneur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bicyclus dekeyseri Condamin (Insecta: Lepidoptera)
 Alluaudomyia dekeyseri Clastrier (Insecta: Diptera)
